--- a/Decoupling/DecouplingLitData-X.xlsx
+++ b/Decoupling/DecouplingLitData-X.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BA037-A32E-4934-9150-529314271E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{D77BA037-A32E-4934-9150-529314271E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1A45A3C-B27E-4B69-9964-AFFD2C7DB0C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="839" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="\a">#REF!</definedName>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="377">
   <si>
     <t>Notes</t>
   </si>
@@ -1237,6 +1238,51 @@
   <si>
     <t>Cohort 3 comprising Hay, miscellaneous, other crops
  (table 1, page 177)</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>PCOPUP</t>
+  </si>
+  <si>
+    <t>PI2MI</t>
+  </si>
+  <si>
+    <t>priceEffect</t>
+  </si>
+  <si>
+    <t>riskAversion</t>
+  </si>
+  <si>
+    <t>wealth</t>
+  </si>
+  <si>
+    <t>updatingExpectations</t>
+  </si>
+  <si>
+    <t>exemptionsExclusions</t>
+  </si>
+  <si>
+    <t>liquidity</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>entryExit</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>avenue</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>relavancy</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1310,7 @@
     <numFmt numFmtId="180" formatCode="0.000000000%"/>
     <numFmt numFmtId="181" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +1562,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2511,7 +2573,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2633,6 +2695,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="20% - Accent1" xfId="366" builtinId="30" customBuiltin="1"/>
@@ -3579,11 +3644,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:DK132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A125" sqref="A125:D125"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5"/>
@@ -17726,4 +17791,683 @@
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44011708-C9F9-472D-B61F-A352835268C9}">
+  <dimension ref="A1:F138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" style="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="85" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="85" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="85" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="43"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="83"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="43"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="83"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="83"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="83"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="43"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="83"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="83"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="83"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="43"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="83"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="83"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="83"/>
+      <c r="B47" s="83"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="83"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="43"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="83"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="83"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="83"/>
+      <c r="B52" s="83"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="83"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="43"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="83"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="83"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="83"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="43"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="43"/>
+      <c r="B60" s="83"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="83"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.5">
+      <c r="A62" s="20"/>
+      <c r="B62" s="83"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="43"/>
+      <c r="B63" s="83"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="43"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="43"/>
+      <c r="B65" s="83"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="43"/>
+      <c r="B66" s="83"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.5">
+      <c r="A67" s="20"/>
+      <c r="B67" s="83"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="43"/>
+      <c r="B68" s="83"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="43"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="43"/>
+      <c r="B70" s="83"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="43"/>
+      <c r="B71" s="83"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.5">
+      <c r="A72" s="20"/>
+      <c r="B72" s="83"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="43"/>
+      <c r="B73" s="83"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="43"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="43"/>
+      <c r="B75" s="83"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="43"/>
+      <c r="B76" s="83"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.5">
+      <c r="A77" s="20"/>
+      <c r="B77" s="83"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="43"/>
+      <c r="B78" s="83"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="43"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="43"/>
+      <c r="B80" s="83"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="43"/>
+      <c r="B81" s="83"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.5">
+      <c r="A82" s="20"/>
+      <c r="B82" s="83"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="43"/>
+      <c r="B83" s="83"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="43"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="43"/>
+      <c r="B85" s="83"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="43"/>
+      <c r="B86" s="83"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="84"/>
+      <c r="B87" s="83"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="43"/>
+      <c r="B88" s="83"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="83"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="43"/>
+      <c r="B90" s="83"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="43"/>
+      <c r="B91" s="83"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="43"/>
+      <c r="B92" s="83"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="43"/>
+      <c r="B93" s="83"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="83"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="43"/>
+      <c r="B95" s="83"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="43"/>
+      <c r="B96" s="83"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="43"/>
+      <c r="B97" s="83"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="43"/>
+      <c r="B98" s="83"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="83"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="43"/>
+      <c r="B100" s="83"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="43"/>
+      <c r="B101" s="83"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="43"/>
+      <c r="B102" s="83"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="43"/>
+      <c r="B103" s="83"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="83"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="43"/>
+      <c r="B105" s="83"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="43"/>
+      <c r="B106" s="83"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="43"/>
+      <c r="B107" s="83"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="43"/>
+      <c r="B108" s="83"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="83"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="43"/>
+      <c r="B110" s="83"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="43"/>
+      <c r="B111" s="83"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="43"/>
+      <c r="B112" s="83"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="43"/>
+      <c r="B113" s="83"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.5">
+      <c r="A114" s="20"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="43"/>
+      <c r="B115" s="83"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="43"/>
+      <c r="B116" s="83"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="43"/>
+      <c r="B117" s="83"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="43"/>
+      <c r="B118" s="83"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.5">
+      <c r="A119" s="20"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="43"/>
+      <c r="B120" s="83"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="43"/>
+      <c r="B121" s="83"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="43"/>
+      <c r="B122" s="83"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="43"/>
+      <c r="B123" s="83"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.5">
+      <c r="A124" s="20"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="43"/>
+      <c r="B125" s="83"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="43"/>
+      <c r="B126" s="83"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="43"/>
+      <c r="B127" s="83"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="43"/>
+      <c r="B128" s="83"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.5">
+      <c r="A129" s="20"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="43"/>
+      <c r="B130" s="83"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="43"/>
+      <c r="B131" s="83"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="43"/>
+      <c r="B132" s="83"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="43"/>
+      <c r="B133" s="83"/>
+    </row>
+    <row r="134" spans="1:2" ht="15.5">
+      <c r="A134" s="20"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="43"/>
+      <c r="B135" s="83"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="43"/>
+      <c r="B136" s="83"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="43"/>
+      <c r="B137" s="83"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>